--- a/out/Frisksnit/Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik december 2024.xlsx
+++ b/out/Frisksnit/Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik december 2024.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -469,7 +469,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
@@ -478,9 +478,6 @@
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
   </si>
   <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
     <t>1% filler,14% containsTotalMass,14% containsSingleMass,14% containsProduct,14% containsProductNr,14% containsAmount,14% SingleMassHeader,14% TotalMassHeader,</t>
   </si>
   <si>
@@ -490,16 +487,13 @@
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -528,7 +522,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,7 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -598,11 +592,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7A999A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
       </patternFill>
     </fill>
     <fill>
@@ -649,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -718,10 +707,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -729,26 +714,36 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2426,7 +2421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99271535-1849-46F1-8D61-7319806E8A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A8FB41-6471-4B4D-BA16-F2792B96F0AB}">
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2750,7 +2745,7 @@
       <c r="G15" s="28">
         <v>2300.46</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="39" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2777,9 +2772,6 @@
       <c r="G16" s="28">
         <v>3666.96</v>
       </c>
-      <c r="H16" s="41" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
@@ -3004,7 +2996,7 @@
       <c r="B26" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="32" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="25">
@@ -3076,7 +3068,7 @@
       <c r="B29" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D29" s="25">
@@ -3100,7 +3092,7 @@
       <c r="B30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="34" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="25">
@@ -3145,7 +3137,7 @@
       <c r="A32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="36">
         <v>3100</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -3153,11 +3145,11 @@
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="39">
+      <c r="F32" s="37">
         <f>SUM(F7:F31)</f>
         <v>1937</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="38">
         <f>SUM(G7:G31)</f>
         <v>75698.09</v>
       </c>
@@ -3481,7 +3473,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="39" t="s">
         <v>104</v>
       </c>
       <c r="B47" s="22" t="s">
@@ -3748,7 +3740,7 @@
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="38">
+      <c r="B58" s="36">
         <v>3100</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -3756,11 +3748,11 @@
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="39">
+      <c r="F58" s="37">
         <f>SUM(F35:F57)</f>
         <v>1767</v>
       </c>
-      <c r="G58" s="40">
+      <c r="G58" s="38">
         <f>SUM(G35:G57)</f>
         <v>58500.30000000001</v>
       </c>
@@ -3776,11 +3768,11 @@
         <v>131</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="39">
+      <c r="F60" s="37">
         <f>+F32+F58</f>
         <v>3704</v>
       </c>
-      <c r="G60" s="40">
+      <c r="G60" s="38">
         <f>+G32+G58</f>
         <v>134198.39</v>
       </c>
@@ -3799,11 +3791,11 @@
       <c r="E61" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F61" s="40">
         <f>+F58/F60</f>
         <v>0.47705183585313177</v>
       </c>
-      <c r="G61" s="42">
+      <c r="G61" s="40">
         <f>+G58/G60</f>
         <v>0.4359240077321345</v>
       </c>
@@ -3815,7 +3807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCD19E9-35F4-482E-9CE3-81B401CAF880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52705B7A-A071-4BA2-9D72-BFE1AAD03359}">
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3863,20 +3855,20 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="D6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="48" t="s">
+      <c r="F6" s="48" t="s">
         <v>151</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>152</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
@@ -3886,10 +3878,10 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5">
@@ -3898,7 +3890,7 @@
       <c r="E7" s="49">
         <v>1</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="51">
         <f>+D7*E7</f>
         <v>1</v>
       </c>
@@ -3910,10 +3902,10 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5">
@@ -3922,7 +3914,7 @@
       <c r="E8" s="49">
         <v>2</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="51">
         <f ref="F8:F31" t="shared" si="0">+D8*E8</f>
         <v>6</v>
       </c>
@@ -3934,10 +3926,10 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="5">
@@ -3946,7 +3938,7 @@
       <c r="E9" s="49">
         <v>3</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="51">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3958,10 +3950,10 @@
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="5">
@@ -3970,7 +3962,7 @@
       <c r="E10" s="49">
         <v>3</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="51">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3982,10 +3974,10 @@
       <c r="A11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5">
@@ -3994,7 +3986,7 @@
       <c r="E11" s="49">
         <v>19</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="51">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -4006,10 +3998,10 @@
       <c r="A12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="5">
@@ -4018,7 +4010,7 @@
       <c r="E12" s="49">
         <v>8</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="51">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -4030,10 +4022,10 @@
       <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="5">
@@ -4042,7 +4034,7 @@
       <c r="E13" s="49">
         <v>12</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="51">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -4054,10 +4046,10 @@
       <c r="A14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="5">
@@ -4066,7 +4058,7 @@
       <c r="E14" s="49">
         <v>1</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4078,10 +4070,10 @@
       <c r="A15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="5">
@@ -4090,7 +4082,7 @@
       <c r="E15" s="49">
         <v>46</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="51">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
@@ -4102,10 +4094,10 @@
       <c r="A16" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="46" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="5">
@@ -4114,7 +4106,7 @@
       <c r="E16" s="49">
         <v>88</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="51">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
@@ -4126,10 +4118,10 @@
       <c r="A17" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="46" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="5">
@@ -4138,7 +4130,7 @@
       <c r="E17" s="49">
         <v>5</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4150,10 +4142,10 @@
       <c r="A18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="46" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="5">
@@ -4162,7 +4154,7 @@
       <c r="E18" s="49">
         <v>8</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -4174,10 +4166,10 @@
       <c r="A19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="5">
@@ -4186,7 +4178,7 @@
       <c r="E19" s="49">
         <v>15</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="51">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -4198,10 +4190,10 @@
       <c r="A20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="5">
@@ -4210,7 +4202,7 @@
       <c r="E20" s="49">
         <v>66</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="51">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -4222,10 +4214,10 @@
       <c r="A21" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="46" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="5">
@@ -4234,7 +4226,7 @@
       <c r="E21" s="49">
         <v>5</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="51">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -4246,10 +4238,10 @@
       <c r="A22" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="46" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="5">
@@ -4258,7 +4250,7 @@
       <c r="E22" s="49">
         <v>4</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="51">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -4270,10 +4262,10 @@
       <c r="A23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="46" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="5">
@@ -4282,7 +4274,7 @@
       <c r="E23" s="49">
         <v>4</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="51">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -4294,10 +4286,10 @@
       <c r="A24" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="46" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="5">
@@ -4306,7 +4298,7 @@
       <c r="E24" s="49">
         <v>10</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="51">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -4318,10 +4310,10 @@
       <c r="A25" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="46" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="5">
@@ -4330,7 +4322,7 @@
       <c r="E25" s="49">
         <v>2</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4342,19 +4334,19 @@
       <c r="A26" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="46" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="49">
         <v>50</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -4366,19 +4358,19 @@
       <c r="A27" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="46" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="49">
         <v>2</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4390,19 +4382,19 @@
       <c r="A28" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="46" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="49">
         <v>528</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="51">
         <f t="shared" si="0"/>
         <v>528</v>
       </c>
@@ -4414,19 +4406,19 @@
       <c r="A29" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="46" t="s">
         <v>69</v>
       </c>
       <c r="D29" s="5">
         <v>3</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="49">
         <v>84</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="51">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
@@ -4438,19 +4430,19 @@
       <c r="A30" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="46" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="5">
         <v>3</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="49">
         <v>27</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="51">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
@@ -4462,19 +4454,19 @@
       <c r="A31" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="46" t="s">
         <v>73</v>
       </c>
       <c r="D31" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="49">
         <v>168</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="51">
         <f t="shared" si="0"/>
         <v>504</v>
       </c>
@@ -4486,15 +4478,15 @@
       <c r="A32" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="44">
         <v>3100</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="47" t="s">
         <v>75</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3">
+      <c r="E32" s="50"/>
+      <c r="F32" s="52">
         <f>SUM(F7:F31)</f>
         <v>1937</v>
       </c>
@@ -4514,20 +4506,20 @@
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="41" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="48" t="s">
         <v>151</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>152</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>10</v>
@@ -4537,10 +4529,10 @@
       <c r="A35" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="46" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="5">
@@ -4549,7 +4541,7 @@
       <c r="E35" s="49">
         <v>138</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="51">
         <f>+D35*E35</f>
         <v>690</v>
       </c>
@@ -4561,10 +4553,10 @@
       <c r="A36" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="46" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="5">
@@ -4573,7 +4565,7 @@
       <c r="E36" s="49">
         <v>53</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="51">
         <f ref="F36:F57" t="shared" si="1">+D36*E36</f>
         <v>53</v>
       </c>
@@ -4585,10 +4577,10 @@
       <c r="A37" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="46" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="5">
@@ -4597,7 +4589,7 @@
       <c r="E37" s="49">
         <v>33</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="51">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -4609,10 +4601,10 @@
       <c r="A38" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="46" t="s">
         <v>85</v>
       </c>
       <c r="D38" s="5">
@@ -4621,7 +4613,7 @@
       <c r="E38" s="49">
         <v>18</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38" s="51">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -4633,10 +4625,10 @@
       <c r="A39" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="46" t="s">
         <v>87</v>
       </c>
       <c r="D39" s="5">
@@ -4645,7 +4637,7 @@
       <c r="E39" s="49">
         <v>40</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39" s="51">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -4657,10 +4649,10 @@
       <c r="A40" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="46" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="5">
@@ -4669,7 +4661,7 @@
       <c r="E40" s="49">
         <v>18</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40" s="51">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -4681,10 +4673,10 @@
       <c r="A41" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="46" t="s">
         <v>91</v>
       </c>
       <c r="D41" s="5">
@@ -4693,7 +4685,7 @@
       <c r="E41" s="49">
         <v>13</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="51">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -4705,10 +4697,10 @@
       <c r="A42" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="46" t="s">
         <v>94</v>
       </c>
       <c r="D42" s="5">
@@ -4717,7 +4709,7 @@
       <c r="E42" s="49">
         <v>1</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="51">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4729,10 +4721,10 @@
       <c r="A43" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="5">
@@ -4741,7 +4733,7 @@
       <c r="E43" s="49">
         <v>4</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="51">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -4753,10 +4745,10 @@
       <c r="A44" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="46" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="5">
@@ -4765,7 +4757,7 @@
       <c r="E44" s="49">
         <v>2</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="51">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4777,10 +4769,10 @@
       <c r="A45" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="46" t="s">
         <v>100</v>
       </c>
       <c r="D45" s="5">
@@ -4789,7 +4781,7 @@
       <c r="E45" s="49">
         <v>2</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="51">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4801,10 +4793,10 @@
       <c r="A46" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="46" t="s">
         <v>103</v>
       </c>
       <c r="D46" s="5">
@@ -4813,7 +4805,7 @@
       <c r="E46" s="49">
         <v>52</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="51">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
@@ -4825,10 +4817,10 @@
       <c r="A47" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="46" t="s">
         <v>106</v>
       </c>
       <c r="D47" s="5">
@@ -4837,7 +4829,7 @@
       <c r="E47" s="49">
         <v>5</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="51">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -4849,10 +4841,10 @@
       <c r="A48" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="46" t="s">
         <v>109</v>
       </c>
       <c r="D48" s="5">
@@ -4861,7 +4853,7 @@
       <c r="E48" s="49">
         <v>12</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="51">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -4873,10 +4865,10 @@
       <c r="A49" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="46" t="s">
         <v>111</v>
       </c>
       <c r="D49" s="5">
@@ -4885,7 +4877,7 @@
       <c r="E49" s="49">
         <v>8</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49" s="51">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -4897,10 +4889,10 @@
       <c r="A50" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="46" t="s">
         <v>113</v>
       </c>
       <c r="D50" s="5">
@@ -4909,7 +4901,7 @@
       <c r="E50" s="49">
         <v>24</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F50" s="51">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -4921,10 +4913,10 @@
       <c r="A51" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="46" t="s">
         <v>115</v>
       </c>
       <c r="D51" s="5">
@@ -4933,7 +4925,7 @@
       <c r="E51" s="49">
         <v>21</v>
       </c>
-      <c r="F51" s="50">
+      <c r="F51" s="51">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -4945,10 +4937,10 @@
       <c r="A52" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="46" t="s">
         <v>117</v>
       </c>
       <c r="D52" s="5">
@@ -4957,7 +4949,7 @@
       <c r="E52" s="49">
         <v>10</v>
       </c>
-      <c r="F52" s="50">
+      <c r="F52" s="51">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -4969,10 +4961,10 @@
       <c r="A53" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="46" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="5">
@@ -4981,7 +4973,7 @@
       <c r="E53" s="49">
         <v>6</v>
       </c>
-      <c r="F53" s="50">
+      <c r="F53" s="51">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -4993,10 +4985,10 @@
       <c r="A54" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="46" t="s">
         <v>122</v>
       </c>
       <c r="D54" s="5">
@@ -5005,7 +4997,7 @@
       <c r="E54" s="49">
         <v>69</v>
       </c>
-      <c r="F54" s="50">
+      <c r="F54" s="51">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -5017,10 +5009,10 @@
       <c r="A55" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="46" t="s">
         <v>124</v>
       </c>
       <c r="D55" s="5">
@@ -5029,7 +5021,7 @@
       <c r="E55" s="49">
         <v>47</v>
       </c>
-      <c r="F55" s="50">
+      <c r="F55" s="51">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
@@ -5041,10 +5033,10 @@
       <c r="A56" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="46" t="s">
         <v>126</v>
       </c>
       <c r="D56" s="5">
@@ -5053,7 +5045,7 @@
       <c r="E56" s="49">
         <v>139</v>
       </c>
-      <c r="F56" s="50">
+      <c r="F56" s="51">
         <f t="shared" si="1"/>
         <v>417</v>
       </c>
@@ -5065,10 +5057,10 @@
       <c r="A57" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="46" t="s">
         <v>129</v>
       </c>
       <c r="D57" s="5">
@@ -5077,7 +5069,7 @@
       <c r="E57" s="49">
         <v>12</v>
       </c>
-      <c r="F57" s="50">
+      <c r="F57" s="51">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -5089,15 +5081,15 @@
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="44">
         <v>3100</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="47" t="s">
         <v>75</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="3">
+      <c r="E58" s="50"/>
+      <c r="F58" s="52">
         <f>SUM(F35:F57)</f>
         <v>1767</v>
       </c>
